--- a/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>153,32%</t>
+          <t>106,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,05%</t>
+          <t>41,22%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>174,13%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>509,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,13</t>
+          <t>-1,52; 8,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,14</t>
+          <t>-2,15; 5,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,76</t>
+          <t>1,73; 8,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 4,36</t>
+          <t>1,91; 10,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 129,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 109,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 454,51</t>
+          <t>-37,13; 793,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,27; 68,06</t>
+          <t>-40,23; 218,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27,86; 563,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19,35; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-39,51%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,56</t>
+          <t>-3,15; 4,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,05</t>
+          <t>-8,0; 0,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,3</t>
+          <t>-2,65; 2,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,34</t>
+          <t>-2,92; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 67,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 22,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 65,12</t>
+          <t>-54,07; 157,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,95; 40,33</t>
+          <t>-69,43; 7,2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,19; 64,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-52,68; 99,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,11%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>132,15%</t>
+          <t>-46,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-63,64%</t>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>123,74%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,54</t>
+          <t>-9,01; 1,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,68</t>
+          <t>-4,8; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,82</t>
+          <t>0,47; 5,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,94; -0,81</t>
+          <t>-3,86; 3,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,56; 66,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 389,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 427,29</t>
+          <t>-91,17; 70,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-89,45; -8,79</t>
+          <t>-82,86; 204,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 467,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-55,29; 128,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-0,44</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,14</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,14%</t>
+          <t>36,23%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-8,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,44</t>
+          <t>-2,61; 3,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,13</t>
+          <t>-1,91; 3,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,35</t>
+          <t>-3,85; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 38,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 32,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 126,17</t>
+          <t>-35,65; 87,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 21,96</t>
+          <t>-46,73; 220,24</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-55,98; 79,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-11,72%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 2,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 1,2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 3,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 2,53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-31,07; 53,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-41,81; 35,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 127,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,49; 75,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,221 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>106,19%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>41,22%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>174,13%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>509,16%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>2.492790862173505</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.552515867586518</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.193144695817799</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.841244662764577</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.6678565993620214</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3774222968644335</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.75822067783889</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>5.415505552346815</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 8,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,15; 5,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 8,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 10,66</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,13; 793,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,23; 218,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>27,86; 563,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>19,35; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.013716705876422</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.187421092920458</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.704900442691019</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.062415797473464</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.5196973062392927</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4187427346884849</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.2711147367731871</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2698190832775019</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.513421579972681</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.387795345257578</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.559648372337962</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.11581047511097</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>6.299111076418894</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.179191510988312</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5.589760407858955</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,21</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-39,51%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-3,76%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,71%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 4,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 0,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,07</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 2,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-54,07; 157,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-69,43; 7,2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-43,19; 64,52</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-52,68; 99,09</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.1653306579173321</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.789881590245451</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.08493040090321244</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.180413157082393</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.03665552716724373</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.357249620938369</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.018660323381954</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.04179752790891481</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-46,83%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>123,74%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.96604620130348</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.193787993137842</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.549298602768979</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.967923085697103</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.5150459394553771</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6546844338020973</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4238542009950943</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5297032557738742</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 1,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 2,03</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 5,02</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 3,78</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-91,17; 70,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-82,86; 204,74</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 467,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-55,29; 128,33</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.059297449878057</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6785469387127084</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.147100692642619</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.939633263771689</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.386181150175651</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1851824261118612</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6538595329704706</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.024017365875345</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +881,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36,23%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-8,41%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.569399132291591</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.07017502466399976</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.590622395994481</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.410716583848561</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.4294657531612919</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02860607593889987</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.305345143559055</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.08842311489684213</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 3,52</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 3,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 2,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-35,65; 87,01</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-46,73; 220,24</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-55,98; 79,39</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.909196064161097</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.002331590909335</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5313594502370228</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.528989445605641</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9011213020453872</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8285873157479732</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.08174926164830705</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5210915179434328</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.216297794009913</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.997411819710069</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.085835548735412</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.915587664776018</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.8903607836148495</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.041528364776912</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>5.044209069159425</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.373260036756752</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-11,72%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>56,06%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>18,15%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 2,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 1,2</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 3,48</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,53</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-31,07; 53,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-41,81; 35,69</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>10,36; 127,34</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-20,49; 75,98</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.01193096767764523</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.9858594265572354</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.018190771098634</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.465562091195253</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.002929878434343712</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1851824306418187</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5919585979928849</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3834448962650329</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.443154271220377</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.452264587403202</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.5420491910713066</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.7176037571484936</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.4531438139330883</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4837991515446239</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1225692916694918</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1614282771130734</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.19876543826919</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8491696530461501</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.573208151138258</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.41717749567576</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.7478129141270407</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2194631428075145</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.328298322600919</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.262099838441133</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
